--- a/data/fact_data/Jalna/Jalna_Feb_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_Feb_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0987027-DDCC-7448-A13D-0AF95FDD0BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8278AE-715C-1B4E-A5D9-E9508156CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{04016E9A-4108-4947-9216-92C1AEC6FA4D}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,9 +510,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E7C61D-D107-DA4F-84AF-4C271345D65C}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +861,7 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2895,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A8554-AB40-C446-9CA5-7A89FF9D84E6}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E69"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,7 +2927,7 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4960,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29D9AF5-2B5E-1047-B11A-0B90403800A3}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E69"/>
     </sheetView>
   </sheetViews>
@@ -4994,7 +4991,7 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7024,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE4CB2-9807-2243-8DED-50EAE09FD477}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7059,7 +7056,7 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
